--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,136 +67,142 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>comfortable</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>easy</t>
@@ -205,100 +211,88 @@
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>always</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>used</t>
@@ -665,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -784,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3333333333333333</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3131313131313131</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8730650154798761</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>564</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>564</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -934,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1243243243243243</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -952,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -961,10 +955,10 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,13 +978,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8606811145510835</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>556</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>556</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1004,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8260869565217391</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1062,13 +1056,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7359307359307359</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1082,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L12">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1108,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7111111111111111</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7084745762711865</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L14">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1166,13 +1160,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6666666666666666</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1184,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1192,13 +1186,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6619718309859155</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1210,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1244,13 +1238,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6438356164383562</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1262,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1270,13 +1264,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.640625</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1288,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1296,13 +1290,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1314,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1322,13 +1316,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5918367346938775</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1340,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1348,13 +1342,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5789473684210527</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1366,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1374,13 +1368,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5771428571428572</v>
+        <v>0.59375</v>
       </c>
       <c r="L23">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1392,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1400,13 +1394,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5692307692307692</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1418,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1426,13 +1420,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5686274509803921</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1444,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1452,13 +1446,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5571428571428572</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1470,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1478,13 +1472,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5449101796407185</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L27">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1496,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1504,13 +1498,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5441176470588235</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1522,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1530,13 +1524,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5416666666666666</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1556,13 +1550,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5396825396825397</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1574,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1582,13 +1576,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5384615384615384</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1600,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1608,13 +1602,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5138888888888888</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1626,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1634,13 +1628,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.5096153846153846</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L33">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1652,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1660,13 +1654,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.5060240963855421</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1678,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1686,13 +1680,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.4871794871794872</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1704,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1712,13 +1706,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.4736842105263158</v>
+        <v>0.49</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1730,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1738,13 +1732,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.46</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L37">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M37">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1756,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1764,13 +1758,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1782,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1790,13 +1784,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.4426229508196721</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1808,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1816,13 +1810,13 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.4342105263157895</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1834,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1842,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.4285714285714285</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1860,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1868,13 +1862,13 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.4156626506024096</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L42">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1886,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>97</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1894,13 +1888,13 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.4117647058823529</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1912,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1920,13 +1914,13 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.3834586466165413</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L44">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1938,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1946,13 +1940,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.3833333333333334</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1964,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1972,13 +1966,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.3693693693693694</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L46">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1990,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>70</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1998,13 +1992,13 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.3651960784313725</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L47">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2016,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>259</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2024,13 +2018,13 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.3650793650793651</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2042,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>40</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2050,13 +2044,13 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.3579766536964981</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L49">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="M49">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2068,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>165</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2076,13 +2070,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.3082191780821918</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L50">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2094,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>505</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2102,13 +2096,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.302158273381295</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L51">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2120,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2128,13 +2122,13 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.3007518796992481</v>
+        <v>0.3054794520547945</v>
       </c>
       <c r="L52">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="M52">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2146,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>93</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2154,13 +2148,13 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.2871287128712871</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2172,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2180,13 +2174,13 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.287037037037037</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2198,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>77</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2206,13 +2200,13 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.2649006622516556</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L55">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2224,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2232,13 +2226,13 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.2619047619047619</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2250,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2258,13 +2252,13 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.2612612612612613</v>
+        <v>0.2411194833153929</v>
       </c>
       <c r="L57">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2276,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>82</v>
+        <v>705</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2284,13 +2278,13 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.2335844994617869</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L58">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2302,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>712</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2310,25 +2304,25 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.2248803827751196</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="L59">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>162</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2336,25 +2330,25 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.2232142857142857</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L60">
         <v>25</v>
       </c>
       <c r="M60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2362,13 +2356,13 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.219047619047619</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2380,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2388,13 +2382,13 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.2100313479623825</v>
+        <v>0.2013245033112583</v>
       </c>
       <c r="L62">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M62">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2406,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>252</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2414,13 +2408,13 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.2039735099337748</v>
+        <v>0.1880877742946709</v>
       </c>
       <c r="L63">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="M63">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2432,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>601</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2440,13 +2434,13 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.188034188034188</v>
+        <v>0.1854219948849105</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2458,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>95</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2466,13 +2460,13 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.1879194630872483</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L65">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2484,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2492,13 +2486,13 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.1790281329923274</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="L66">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M66">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2510,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>642</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2518,13 +2512,13 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.1646341463414634</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2536,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2544,25 +2538,25 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.1503579952267303</v>
+        <v>0.1378378378378378</v>
       </c>
       <c r="L68">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M68">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>356</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2570,25 +2564,25 @@
         <v>80</v>
       </c>
       <c r="K69">
-        <v>0.1486486486486487</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L69">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M69">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>315</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2596,13 +2590,13 @@
         <v>81</v>
       </c>
       <c r="K70">
-        <v>0.1407407407407407</v>
+        <v>0.1312649164677804</v>
       </c>
       <c r="L70">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M70">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2614,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>232</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2622,13 +2616,13 @@
         <v>82</v>
       </c>
       <c r="K71">
-        <v>0.1402214022140221</v>
+        <v>0.1293859649122807</v>
       </c>
       <c r="L71">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M71">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2640,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>233</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2648,13 +2642,13 @@
         <v>83</v>
       </c>
       <c r="K72">
-        <v>0.1299435028248588</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2666,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2674,13 +2668,13 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <v>0.1295454545454545</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L73">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M73">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2692,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>383</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2700,13 +2694,13 @@
         <v>85</v>
       </c>
       <c r="K74">
-        <v>0.1280788177339902</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M74">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2718,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>177</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2726,13 +2720,13 @@
         <v>86</v>
       </c>
       <c r="K75">
-        <v>0.1206140350877193</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L75">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M75">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2744,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2752,25 +2746,25 @@
         <v>87</v>
       </c>
       <c r="K76">
-        <v>0.1202749140893471</v>
+        <v>0.1078066914498141</v>
       </c>
       <c r="L76">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M76">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2778,25 +2772,25 @@
         <v>88</v>
       </c>
       <c r="K77">
-        <v>0.1119221411192214</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="L77">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="M77">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>365</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2804,13 +2798,13 @@
         <v>89</v>
       </c>
       <c r="K78">
-        <v>0.1008403361344538</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2822,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>214</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2830,25 +2824,25 @@
         <v>90</v>
       </c>
       <c r="K79">
-        <v>0.07835820895522388</v>
+        <v>0.06169296987087518</v>
       </c>
       <c r="L79">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="M79">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>988</v>
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2856,25 +2850,25 @@
         <v>91</v>
       </c>
       <c r="K80">
-        <v>0.06886657101865136</v>
+        <v>0.05904059040590406</v>
       </c>
       <c r="L80">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M80">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N80">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>649</v>
+        <v>510</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2882,25 +2876,25 @@
         <v>92</v>
       </c>
       <c r="K81">
-        <v>0.06284153005464481</v>
+        <v>0.05597964376590331</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M81">
         <v>23</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2908,25 +2902,25 @@
         <v>93</v>
       </c>
       <c r="K82">
-        <v>0.0583756345177665</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L82">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M82">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>371</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2934,77 +2928,25 @@
         <v>94</v>
       </c>
       <c r="K83">
-        <v>0.04981549815498155</v>
+        <v>0.03892733564013841</v>
       </c>
       <c r="L83">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M83">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K84">
-        <v>0.04222648752399232</v>
-      </c>
-      <c r="L84">
-        <v>22</v>
-      </c>
-      <c r="M84">
-        <v>23</v>
-      </c>
-      <c r="N84">
-        <v>0.96</v>
-      </c>
-      <c r="O84">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K85">
-        <v>0.04155844155844156</v>
-      </c>
-      <c r="L85">
-        <v>48</v>
-      </c>
-      <c r="M85">
-        <v>50</v>
-      </c>
-      <c r="N85">
-        <v>0.96</v>
-      </c>
-      <c r="O85">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
